--- a/백준/17070 파이프 옮기기 1/파이프.xlsx
+++ b/백준/17070 파이프 옮기기 1/파이프.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\weonw\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\weonw\Desktop\My_Problem_Solving\백준\17070 파이프 옮기기 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CF8875-58C6-4644-A97B-A95F51E72943}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F35EA03-8356-4397-A4B3-EDD4E7E3EBCC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="1584" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8808" yWindow="2628" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -356,10 +356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -367,7 +367,7 @@
     <col min="1" max="16384" width="3.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="2">
         <v>1</v>
       </c>
@@ -389,49 +389,22 @@
       <c r="G1" s="2">
         <v>1</v>
       </c>
-      <c r="H1" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
       <c r="F2" s="1">
         <v>1</v>
       </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>0</v>
       </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
       <c r="C3" s="2">
         <v>0</v>
       </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
       <c r="E3" s="2">
         <v>1</v>
       </c>
@@ -439,25 +412,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="2">
-        <v>2</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="E4" s="1">
         <v>1</v>
       </c>
@@ -467,46 +425,25 @@
       <c r="G4" s="1">
         <v>1</v>
       </c>
-      <c r="H4" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>0</v>
       </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
       <c r="C5" s="2">
         <v>0</v>
       </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
       <c r="E5" s="2">
         <v>1</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="1">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="E6" s="1">
         <v>1</v>
       </c>
@@ -517,47 +454,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>0</v>
       </c>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
       <c r="C7" s="2">
         <v>0</v>
       </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
       <c r="E7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="2">
         <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" s="1">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
